--- a/2019_sell/20191210.xlsx
+++ b/2019_sell/20191210.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_sell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7445BBFB-453B-45E6-A4FA-A189D8A39836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07261D6E-0573-47EC-8BBB-4553AE4C4DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90E51262-4B9F-477D-A907-ED8B90799079}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,7 +612,7 @@
   <dimension ref="A3:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,6 +863,9 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="M13">
@@ -874,6 +877,9 @@
       <c r="O13">
         <f t="shared" si="0"/>
         <v>540</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
